--- a/biology/Zoologie/Hyposcada_schausi/Hyposcada_schausi.xlsx
+++ b/biology/Zoologie/Hyposcada_schausi/Hyposcada_schausi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyposcada schausi est une espèce d'insectes lépidoptères de la famille des Nymphalidae, de la sous-famille des Danainae et du genre Hyposcada.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyposcada schausi a été décrit par Richard Middleton Fox (d) en 1941[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyposcada schausi a été décrit par Richard Middleton Fox (d) en 1941.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (28 décembre 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (28 décembre 2020) :
 Hyposcada schausi schausi ; présent en Colombie.
-Hyposcada schausi lactea Vitale &amp; Bollino, 2001 ; présent en Équateur[1].</t>
+Hyposcada schausi lactea Vitale &amp; Bollino, 2001 ; présent en Équateur.</t>
         </is>
       </c>
     </row>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyposcada schausi  est un papillon au corps fin, d'une envergure d'environ 62 mm, aux ailes antérieures à bord interne concave.
 </t>
@@ -605,9 +623,11 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyposcada schausi est présent en Colombie et en Équateur[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyposcada schausi est présent en Colombie et en Équateur.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
